--- a/Documentation/monitoring.xlsx
+++ b/Documentation/monitoring.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bec612fb95b03138/Dokumente/Schule/HTL/3. Klasse/Projekt Entwicklung/CHAT-PACK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Dokumente\Schule\HTL\3. Klasse\Projekt Entwicklung\Release\CHAT-PACK-RELEASE\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_DF7817A8FD3B56E5C34FA5DB2F045867FCDD3213" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{77D7C7AE-CB37-41F3-B144-12DB1630BA68}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_DF7817A8FD3B56E5C34FA5DB2F045867FCDD3213" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{1B6B7C59-8AA4-4DF7-B6EE-83ED5DE58912}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="oof">Sheet1!$D$23</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -122,6 +121,18 @@
   </si>
   <si>
     <t>merch erverything (LOGIN/REGISTER/Database/MainWindow)</t>
+  </si>
+  <si>
+    <t>Add friend with friendrequest</t>
+  </si>
+  <si>
+    <t>safe/show stats per day</t>
+  </si>
+  <si>
+    <t>bug fixes</t>
+  </si>
+  <si>
+    <t>Release Documents</t>
   </si>
 </sst>
 </file>
@@ -137,18 +148,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,11 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +855,7 @@
       <c r="D27" s="1">
         <v>1.75</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -869,7 +873,7 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -908,7 +912,7 @@
       <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -932,7 +936,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -947,7 +951,7 @@
       <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -965,7 +969,7 @@
       <c r="D35" s="1">
         <v>0.5</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -973,7 +977,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -988,7 +992,7 @@
       <c r="D37" s="1">
         <v>1.5</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -996,7 +1000,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1011,29 +1015,86 @@
       <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
+        <f>C39 - D39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="4"/>
-      <c r="F41" s="1">
-        <f>SUM(B3:B39)</f>
-        <v>47.05</v>
-      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="4"/>
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="4"/>
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="4"/>
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
